--- a/sra/Human.1.0_TYK2.xlsx
+++ b/sra/Human.1.0_TYK2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsabell/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A741888-696D-A747-B519-BD2FA583BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6491B-9169-DE49-B28C-C9CF445D5252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="4480" windowWidth="20700" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -766,12 +766,6 @@
     <t>100 U/mL IFN-α </t>
   </si>
   <si>
-    <t>100 U/mL IFN-α, 10 nM BMS-986202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 U/mL IFN-α, 1 µM BMS-986202 </t>
-  </si>
-  <si>
     <t>100 U/mL IFN-α, 1 µM NDI-034858</t>
   </si>
   <si>
@@ -800,6 +794,18 @@
   </si>
   <si>
     <t>DMSO_Vamp</t>
+  </si>
+  <si>
+    <t>100 U/mL IFN-α, 10 uM BMS-986202</t>
+  </si>
+  <si>
+    <t>100 U/mL IFN-α, 1 uM BMS-986202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 U/mL IFN-α, 20 nM BMS-986202 </t>
+  </si>
+  <si>
+    <t>100 U/mL IFN-α, 7 nM NDI-034858</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1273,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -1470,7 +1476,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>46</v>
@@ -1508,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>51</v>
@@ -1546,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>52</v>
@@ -1584,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>53</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -1622,15 +1628,15 @@
         <v>44</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
@@ -1660,15 +1666,15 @@
         <v>44</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -1698,15 +1704,15 @@
         <v>44</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
@@ -1736,15 +1742,15 @@
         <v>44</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
@@ -1774,15 +1780,15 @@
         <v>44</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -1812,7 +1818,7 @@
         <v>44</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>46</v>
